--- a/Document/AAKPI&MP/KPI.xlsx
+++ b/Document/AAKPI&MP/KPI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -105,15 +105,9 @@
     <t>Làm giỏ hàng</t>
   </si>
   <si>
-    <t>Làm quản lý hình ảnh</t>
-  </si>
-  <si>
     <t>Làm phần Search cho CMS</t>
   </si>
   <si>
-    <t>sửa bài viết bằng click and change</t>
-  </si>
-  <si>
     <t>Làm login, quản lý user</t>
   </si>
   <si>
@@ -132,17 +126,23 @@
     <t>Hoàn thiện phần được giao tuần trước, đưa vào CMS</t>
   </si>
   <si>
-    <t>Tiếp tục hoàn thành công việc chưa xong. Riêng Thành test CMS</t>
-  </si>
-  <si>
     <t>Về quê</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thành công việc chưa xong. Riêng Thành, Thi test CMS</t>
+  </si>
+  <si>
+    <t>thêm, xóa, sửa bài viết bằng click and change</t>
+  </si>
+  <si>
+    <t>Làm quản lý, show hình ảnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,15 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,6 +364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -398,6 +399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,46 +575,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -626,14 +628,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="1">
@@ -650,17 +652,17 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1">
         <v>0</v>
       </c>
@@ -675,17 +677,17 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -700,14 +702,14 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -722,14 +724,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1">
         <v>3.5</v>
       </c>
@@ -744,14 +746,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -766,14 +768,14 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -788,17 +790,17 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="1">
         <v>0</v>
       </c>
@@ -813,17 +815,17 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="1">
         <v>3</v>
       </c>
@@ -838,14 +840,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -860,17 +862,17 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1">
         <v>3</v>
       </c>
@@ -885,32 +887,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
@@ -924,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -932,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -948,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -972,7 +974,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -980,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -996,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -1020,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1068,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
         <v>3.5</v>
@@ -1116,7 +1118,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -1164,7 +1166,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>11</v>
       </c>
@@ -1188,32 +1190,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -1251,7 +1253,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -1275,7 +1277,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -1299,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -1323,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -1331,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -1347,7 +1349,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>6</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -1371,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1395,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>8</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>3.5</v>
@@ -1419,7 +1421,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1443,7 +1445,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -1467,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>11</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -1491,32 +1493,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="2" t="s">
         <v>15</v>
       </c>
@@ -1530,15 +1532,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>38</v>
+      <c r="C53" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -1554,14 +1556,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="1">
         <v>4</v>
       </c>
@@ -1576,14 +1578,14 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="1">
         <v>3</v>
       </c>
@@ -1598,14 +1600,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="1">
         <v>4.5</v>
       </c>
@@ -1620,14 +1622,14 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="1">
         <v>4</v>
       </c>
@@ -1642,14 +1644,14 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -1664,14 +1666,14 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="1">
         <v>3</v>
       </c>
@@ -1686,14 +1688,14 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="1">
         <v>3.5</v>
       </c>
@@ -1708,14 +1710,14 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -1730,14 +1732,14 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="1">
         <v>3</v>
       </c>
@@ -1752,26 +1754,26 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1779,6 +1781,15 @@
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1787,16 +1798,7 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:G51"/>
     <mergeCell ref="C5:C15"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1804,24 +1806,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/AAKPI&MP/KPI.xlsx
+++ b/Document/AAKPI&MP/KPI.xlsx
@@ -249,6 +249,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -264,15 +273,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,26 +595,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="1">
@@ -662,7 +662,7 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1">
         <v>0</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1">
         <v>3.5</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1">
         <v>3</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1">
         <v>3</v>
       </c>
@@ -893,26 +893,26 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1196,26 +1196,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
@@ -1499,26 +1499,26 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="C51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="1">
@@ -1563,7 +1563,7 @@
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="1">
         <v>4</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="1">
         <v>3</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="1">
         <v>4.5</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="1">
         <v>4</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="1">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="1">
         <v>3.5</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="1">
         <v>3</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="1">
         <v>3</v>
       </c>
@@ -1781,6 +1781,15 @@
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="C5:C15"/>
     <mergeCell ref="C53:C63"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
@@ -1790,15 +1799,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:G51"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C5:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
